--- a/mysite/web/files/批量导入客户模板.xlsx
+++ b/mysite/web/files/批量导入客户模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>客户姓名</t>
   </si>
@@ -32,12 +32,59 @@
   <si>
     <t>公司</t>
   </si>
+  <si>
+    <t>王磊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user1@1.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user2@1.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user3@1.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user4@1.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石油公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国烟草公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李伟中</t>
+  </si>
+  <si>
+    <t>赵云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张国力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人民银行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国成品油公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -50,6 +97,17 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Kaiti SC Black"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
@@ -121,12 +179,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -142,8 +203,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1332,7 +1406,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -1355,28 +1429,60 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="20.25" customHeight="1">
       <c r="A6" s="3"/>
@@ -1464,6 +1570,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
